--- a/raw-data/Timetable_Master_Management.xlsx
+++ b/raw-data/Timetable_Master_Management.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Lo Priore\Documents\MASTER 2.1\Programming\project--G2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Lo Priore\Documents\MASTER 2.1\Programming\project--G2\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4E1CD-C5FF-4BC5-AE1A-9827586C4184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7F574-37C3-4654-B9F0-E01C234B9488}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7D46FA66-D2EE-D643-A8C9-830764CAC309}"/>
   </bookViews>
@@ -981,12 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBCED3-0F7A-9D40-B959-B2A6745D0A8C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="12">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I27" s="12">
         <v>14</v>
@@ -2110,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>2</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>2</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>2</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>3</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>3</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>3</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>3</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>3</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>3</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>3</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>3</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>3</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>3</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>3</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>3</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>3</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>3</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>3</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>3</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>3</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>3</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>3</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>3</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>3</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>3</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>3</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>3</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>3</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>3</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>3</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>3</v>
       </c>
@@ -5063,7 +5064,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M99" xr:uid="{FF6BCF00-F687-40BD-9D06-559784E76804}"/>
+  <autoFilter ref="A1:M99" xr:uid="{FF6BCF00-F687-40BD-9D06-559784E76804}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="International Strategy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C62" r:id="rId1" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2670?dyn_lang=fr" xr:uid="{4A23B8D8-680D-4D43-B9FC-6E6A2CB9AC57}"/>
     <hyperlink ref="C63" r:id="rId2" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2363?dyn_lang=fr" xr:uid="{136EE764-03E9-9D47-867E-753B6A1231DB}"/>

--- a/raw-data/Timetable_Master_Management.xlsx
+++ b/raw-data/Timetable_Master_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Lo Priore\Documents\MASTER 2.1\Programming\project--G2\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7F574-37C3-4654-B9F0-E01C234B9488}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A92302-2BAD-45B2-B96F-03C327B72614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7D46FA66-D2EE-D643-A8C9-830764CAC309}"/>
   </bookViews>
@@ -987,7 +987,7 @@
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="J27" s="3">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="K27" s="3">
         <v>0.58333333333333337</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>3</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>3</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>3</v>
       </c>
@@ -5065,9 +5065,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M99" xr:uid="{FF6BCF00-F687-40BD-9D06-559784E76804}">
-    <filterColumn colId="2">
+    <filterColumn colId="7">
       <filters>
-        <filter val="International Strategy"/>
+        <filter val="12.50"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/raw-data/Timetable_Master_Management.xlsx
+++ b/raw-data/Timetable_Master_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Lo Priore\Documents\MASTER 2.1\Programming\project--G2\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A92302-2BAD-45B2-B96F-03C327B72614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A84A41-CDFD-4811-BE0C-B8EE9B9F4259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7D46FA66-D2EE-D643-A8C9-830764CAC309}"/>
   </bookViews>
@@ -987,7 +987,7 @@
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="12">
         <v>8.5</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>3</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>3</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>3</v>
       </c>
@@ -5065,9 +5065,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M99" xr:uid="{FF6BCF00-F687-40BD-9D06-559784E76804}">
-    <filterColumn colId="7">
+    <filterColumn colId="2">
       <filters>
-        <filter val="12.50"/>
+        <filter val="Production Control"/>
       </filters>
     </filterColumn>
   </autoFilter>
